--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,9 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Tyrobp</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H2">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I2">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J2">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>560.741322631454</v>
+        <v>0.2278003333333333</v>
       </c>
       <c r="N2">
-        <v>560.741322631454</v>
+        <v>0.6834009999999999</v>
       </c>
       <c r="O2">
-        <v>0.2684199172457052</v>
+        <v>0.0001064345023639502</v>
       </c>
       <c r="P2">
-        <v>0.2684199172457052</v>
+        <v>0.0001064345023639502</v>
       </c>
       <c r="Q2">
-        <v>11370.16486691392</v>
+        <v>7.043788517429222</v>
       </c>
       <c r="R2">
-        <v>11370.16486691392</v>
+        <v>63.39409665686301</v>
       </c>
       <c r="S2">
-        <v>0.09440557805815786</v>
+        <v>4.677246174564424E-05</v>
       </c>
       <c r="T2">
-        <v>0.09440557805815786</v>
+        <v>4.677246174564424E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H3">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I3">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J3">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>639.005141359706</v>
+        <v>590.7385459999999</v>
       </c>
       <c r="N3">
-        <v>639.005141359706</v>
+        <v>1772.215638</v>
       </c>
       <c r="O3">
-        <v>0.3058838367010892</v>
+        <v>0.2760090920442617</v>
       </c>
       <c r="P3">
-        <v>0.3058838367010892</v>
+        <v>0.2760090920442617</v>
       </c>
       <c r="Q3">
-        <v>12957.12214318257</v>
+        <v>18266.160221236</v>
       </c>
       <c r="R3">
-        <v>12957.12214318257</v>
+        <v>164395.441991124</v>
       </c>
       <c r="S3">
-        <v>0.1075819585920669</v>
+        <v>0.1212917278923904</v>
       </c>
       <c r="T3">
-        <v>0.1075819585920669</v>
+        <v>0.1212917278923904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H4">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I4">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J4">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>889.298672395514</v>
+        <v>640.3793133333334</v>
       </c>
       <c r="N4">
-        <v>889.298672395514</v>
+        <v>1921.13794</v>
       </c>
       <c r="O4">
-        <v>0.4256962460532056</v>
+        <v>0.2992026066927096</v>
       </c>
       <c r="P4">
-        <v>0.4256962460532056</v>
+        <v>0.2992026066927096</v>
       </c>
       <c r="Q4">
-        <v>18032.3299050147</v>
+        <v>19801.09681163714</v>
       </c>
       <c r="R4">
-        <v>18032.3299050147</v>
+        <v>178209.8713047343</v>
       </c>
       <c r="S4">
-        <v>0.1497210065416027</v>
+        <v>0.1314840786108826</v>
       </c>
       <c r="T4">
-        <v>0.1497210065416027</v>
+        <v>0.1314840786108826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.6420205829656</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H5">
-        <v>17.6420205829656</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I5">
-        <v>0.3060039565448783</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J5">
-        <v>0.3060039565448783</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>560.741322631454</v>
+        <v>908.663269</v>
       </c>
       <c r="N5">
-        <v>560.741322631454</v>
+        <v>2725.989807</v>
       </c>
       <c r="O5">
-        <v>0.2684199172457052</v>
+        <v>0.4245521568701914</v>
       </c>
       <c r="P5">
-        <v>0.2684199172457052</v>
+        <v>0.4245521568701914</v>
       </c>
       <c r="Q5">
-        <v>9892.609955583464</v>
+        <v>28096.67486757512</v>
       </c>
       <c r="R5">
-        <v>9892.609955583464</v>
+        <v>252870.0738081761</v>
       </c>
       <c r="S5">
-        <v>0.0821375566926346</v>
+        <v>0.1865687260728674</v>
       </c>
       <c r="T5">
-        <v>0.0821375566926346</v>
+        <v>0.1865687260728674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6420205829656</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H6">
-        <v>17.6420205829656</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I6">
-        <v>0.3060039565448783</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J6">
-        <v>0.3060039565448783</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>639.005141359706</v>
+        <v>0.2776163333333333</v>
       </c>
       <c r="N6">
-        <v>639.005141359706</v>
+        <v>0.832849</v>
       </c>
       <c r="O6">
-        <v>0.3058838367010892</v>
+        <v>0.0001297098904732559</v>
       </c>
       <c r="P6">
-        <v>0.3058838367010892</v>
+        <v>0.0001297098904732559</v>
       </c>
       <c r="Q6">
-        <v>11273.34185648878</v>
+        <v>8.584143457431889</v>
       </c>
       <c r="R6">
-        <v>11273.34185648878</v>
+        <v>77.257291116887</v>
       </c>
       <c r="S6">
-        <v>0.09360166427366076</v>
+        <v>5.700079161780282E-05</v>
       </c>
       <c r="T6">
-        <v>0.09360166427366076</v>
+        <v>5.700079161780282E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,433 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H7">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I7">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J7">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>889.298672395514</v>
+        <v>0.2278003333333333</v>
       </c>
       <c r="N7">
-        <v>889.298672395514</v>
+        <v>0.6834009999999999</v>
       </c>
       <c r="O7">
-        <v>0.4256962460532056</v>
+        <v>0.0001064345023639502</v>
       </c>
       <c r="P7">
-        <v>0.4256962460532056</v>
+        <v>0.0001064345023639502</v>
       </c>
       <c r="Q7">
-        <v>15689.02548280564</v>
+        <v>4.060683240941555</v>
       </c>
       <c r="R7">
-        <v>15689.02548280564</v>
+        <v>36.546149168474</v>
       </c>
       <c r="S7">
-        <v>0.130264735578583</v>
+        <v>2.69639202083023E-05</v>
       </c>
       <c r="T7">
-        <v>0.130264735578583</v>
+        <v>2.696392020830231E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.629152343248192</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H8">
-        <v>0.629152343248192</v>
+        <v>53.476874</v>
       </c>
       <c r="I8">
-        <v>0.01091275828627705</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J8">
-        <v>0.01091275828627705</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>560.741322631454</v>
+        <v>590.7385459999999</v>
       </c>
       <c r="N8">
-        <v>560.741322631454</v>
+        <v>1772.215638</v>
       </c>
       <c r="O8">
-        <v>0.2684199172457052</v>
+        <v>0.2760090920442617</v>
       </c>
       <c r="P8">
-        <v>0.2684199172457052</v>
+        <v>0.2760090920442617</v>
       </c>
       <c r="Q8">
-        <v>352.7917170896697</v>
+        <v>10530.2835971284</v>
       </c>
       <c r="R8">
-        <v>352.7917170896697</v>
+        <v>94772.55237415561</v>
       </c>
       <c r="S8">
-        <v>0.002929201676124869</v>
+        <v>0.06992363349620144</v>
       </c>
       <c r="T8">
-        <v>0.002929201676124869</v>
+        <v>0.06992363349620145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.629152343248192</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H9">
-        <v>0.629152343248192</v>
+        <v>53.476874</v>
       </c>
       <c r="I9">
-        <v>0.01091275828627705</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J9">
-        <v>0.01091275828627705</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>639.005141359706</v>
+        <v>640.3793133333334</v>
       </c>
       <c r="N9">
-        <v>639.005141359706</v>
+        <v>1921.13794</v>
       </c>
       <c r="O9">
-        <v>0.3058838367010892</v>
+        <v>0.2992026066927096</v>
       </c>
       <c r="P9">
-        <v>0.3058838367010892</v>
+        <v>0.2992026066927096</v>
       </c>
       <c r="Q9">
-        <v>402.0315820341012</v>
+        <v>11415.16128377773</v>
       </c>
       <c r="R9">
-        <v>402.0315820341012</v>
+        <v>102736.4515539996</v>
       </c>
       <c r="S9">
-        <v>0.003338036373598027</v>
+        <v>0.07579943565096081</v>
       </c>
       <c r="T9">
-        <v>0.003338036373598027</v>
+        <v>0.07579943565096081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.629152343248192</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H10">
-        <v>0.629152343248192</v>
+        <v>53.476874</v>
       </c>
       <c r="I10">
-        <v>0.01091275828627705</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J10">
-        <v>0.01091275828627705</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>889.298672395514</v>
+        <v>908.663269</v>
       </c>
       <c r="N10">
-        <v>889.298672395514</v>
+        <v>2725.989807</v>
       </c>
       <c r="O10">
-        <v>0.4256962460532056</v>
+        <v>0.4245521568701914</v>
       </c>
       <c r="P10">
-        <v>0.4256962460532056</v>
+        <v>0.4245521568701914</v>
       </c>
       <c r="Q10">
-        <v>559.5043435851439</v>
+        <v>16197.49038158037</v>
       </c>
       <c r="R10">
-        <v>559.5043435851439</v>
+        <v>145777.4134342233</v>
       </c>
       <c r="S10">
-        <v>0.004645520236554153</v>
+        <v>0.1075552591298424</v>
       </c>
       <c r="T10">
-        <v>0.004645520236554153</v>
+        <v>0.1075552591298424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.1047203593136</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H11">
-        <v>19.1047203593136</v>
+        <v>53.476874</v>
       </c>
       <c r="I11">
-        <v>0.3313747419770172</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J11">
-        <v>0.3313747419770172</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>560.741322631454</v>
+        <v>0.2776163333333333</v>
       </c>
       <c r="N11">
-        <v>560.741322631454</v>
+        <v>0.832849</v>
       </c>
       <c r="O11">
-        <v>0.2684199172457052</v>
+        <v>0.0001297098904732559</v>
       </c>
       <c r="P11">
-        <v>0.2684199172457052</v>
+        <v>0.0001297098904732559</v>
       </c>
       <c r="Q11">
-        <v>10712.80616278557</v>
+        <v>4.948684559336222</v>
       </c>
       <c r="R11">
-        <v>10712.80616278557</v>
+        <v>44.538161034026</v>
       </c>
       <c r="S11">
-        <v>0.08894758081878786</v>
+        <v>3.286046403438737E-05</v>
       </c>
       <c r="T11">
-        <v>0.08894758081878786</v>
+        <v>3.286046403438738E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>19.1047203593136</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H12">
-        <v>19.1047203593136</v>
+        <v>1.086209</v>
       </c>
       <c r="I12">
-        <v>0.3313747419770172</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J12">
-        <v>0.3313747419770172</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>639.005141359706</v>
+        <v>0.2278003333333333</v>
       </c>
       <c r="N12">
-        <v>639.005141359706</v>
+        <v>0.6834009999999999</v>
       </c>
       <c r="O12">
-        <v>0.3058838367010892</v>
+        <v>0.0001064345023639502</v>
       </c>
       <c r="P12">
-        <v>0.3058838367010892</v>
+        <v>0.0001064345023639502</v>
       </c>
       <c r="Q12">
-        <v>12208.01453384084</v>
+        <v>0.08247959075655555</v>
       </c>
       <c r="R12">
-        <v>12208.01453384084</v>
+        <v>0.7423163168089999</v>
       </c>
       <c r="S12">
-        <v>0.1013621774617635</v>
+        <v>5.476844589969832E-07</v>
       </c>
       <c r="T12">
-        <v>0.1013621774617635</v>
+        <v>5.476844589969832E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3620696666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.086209</v>
+      </c>
+      <c r="I13">
+        <v>0.005145741717513645</v>
+      </c>
+      <c r="J13">
+        <v>0.005145741717513645</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>590.7385459999999</v>
+      </c>
+      <c r="N13">
+        <v>1772.215638</v>
+      </c>
+      <c r="O13">
+        <v>0.2760090920442617</v>
+      </c>
+      <c r="P13">
+        <v>0.2760090920442617</v>
+      </c>
+      <c r="Q13">
+        <v>213.8885084373713</v>
+      </c>
+      <c r="R13">
+        <v>1924.996575936342</v>
+      </c>
+      <c r="S13">
+        <v>0.001420271499345221</v>
+      </c>
+      <c r="T13">
+        <v>0.001420271499345221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3620696666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.086209</v>
+      </c>
+      <c r="I14">
+        <v>0.005145741717513645</v>
+      </c>
+      <c r="J14">
+        <v>0.005145741717513645</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>640.3793133333334</v>
+      </c>
+      <c r="N14">
+        <v>1921.13794</v>
+      </c>
+      <c r="O14">
+        <v>0.2992026066927096</v>
+      </c>
+      <c r="P14">
+        <v>0.2992026066927096</v>
+      </c>
+      <c r="Q14">
+        <v>231.8619245188289</v>
+      </c>
+      <c r="R14">
+        <v>2086.75732066946</v>
+      </c>
+      <c r="S14">
+        <v>0.001539619335247503</v>
+      </c>
+      <c r="T14">
+        <v>0.001539619335247503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3620696666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.086209</v>
+      </c>
+      <c r="I15">
+        <v>0.005145741717513645</v>
+      </c>
+      <c r="J15">
+        <v>0.005145741717513645</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>908.663269</v>
+      </c>
+      <c r="N15">
+        <v>2725.989807</v>
+      </c>
+      <c r="O15">
+        <v>0.4245521568701914</v>
+      </c>
+      <c r="P15">
+        <v>0.4245521568701914</v>
+      </c>
+      <c r="Q15">
+        <v>328.9994069190737</v>
+      </c>
+      <c r="R15">
+        <v>2960.994662271663</v>
+      </c>
+      <c r="S15">
+        <v>0.002184635744867341</v>
+      </c>
+      <c r="T15">
+        <v>0.002184635744867341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.1047203593136</v>
-      </c>
-      <c r="H13">
-        <v>19.1047203593136</v>
-      </c>
-      <c r="I13">
-        <v>0.3313747419770172</v>
-      </c>
-      <c r="J13">
-        <v>0.3313747419770172</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>889.298672395514</v>
-      </c>
-      <c r="N13">
-        <v>889.298672395514</v>
-      </c>
-      <c r="O13">
-        <v>0.4256962460532056</v>
-      </c>
-      <c r="P13">
-        <v>0.4256962460532056</v>
-      </c>
-      <c r="Q13">
-        <v>16989.80245202513</v>
-      </c>
-      <c r="R13">
-        <v>16989.80245202513</v>
-      </c>
-      <c r="S13">
-        <v>0.1410649836964658</v>
-      </c>
-      <c r="T13">
-        <v>0.1410649836964658</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3620696666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.086209</v>
+      </c>
+      <c r="I16">
+        <v>0.005145741717513645</v>
+      </c>
+      <c r="J16">
+        <v>0.005145741717513645</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.2776163333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.832849</v>
+      </c>
+      <c r="O16">
+        <v>0.0001297098904732559</v>
+      </c>
+      <c r="P16">
+        <v>0.0001297098904732559</v>
+      </c>
+      <c r="Q16">
+        <v>0.1005164532712222</v>
+      </c>
+      <c r="R16">
+        <v>0.9046480794409999</v>
+      </c>
+      <c r="S16">
+        <v>6.674535945823587E-07</v>
+      </c>
+      <c r="T16">
+        <v>6.674535945823587E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H17">
+        <v>2.372902</v>
+      </c>
+      <c r="I17">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J17">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2278003333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.6834009999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.0001064345023639502</v>
+      </c>
+      <c r="P17">
+        <v>0.0001064345023639502</v>
+      </c>
+      <c r="Q17">
+        <v>0.1801826221891111</v>
+      </c>
+      <c r="R17">
+        <v>1.621643599702</v>
+      </c>
+      <c r="S17">
+        <v>1.196456251166083E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.196456251166083E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H18">
+        <v>2.372902</v>
+      </c>
+      <c r="I18">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J18">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>590.7385459999999</v>
+      </c>
+      <c r="N18">
+        <v>1772.215638</v>
+      </c>
+      <c r="O18">
+        <v>0.2760090920442617</v>
+      </c>
+      <c r="P18">
+        <v>0.2760090920442617</v>
+      </c>
+      <c r="Q18">
+        <v>467.2548924268306</v>
+      </c>
+      <c r="R18">
+        <v>4205.294031841476</v>
+      </c>
+      <c r="S18">
+        <v>0.00310268565380997</v>
+      </c>
+      <c r="T18">
+        <v>0.003102685653809971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H19">
+        <v>2.372902</v>
+      </c>
+      <c r="I19">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J19">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>640.3793133333334</v>
+      </c>
+      <c r="N19">
+        <v>1921.13794</v>
+      </c>
+      <c r="O19">
+        <v>0.2992026066927096</v>
+      </c>
+      <c r="P19">
+        <v>0.2992026066927096</v>
+      </c>
+      <c r="Q19">
+        <v>506.5191177890977</v>
+      </c>
+      <c r="R19">
+        <v>4558.67206010188</v>
+      </c>
+      <c r="S19">
+        <v>0.003363409619923487</v>
+      </c>
+      <c r="T19">
+        <v>0.003363409619923487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H20">
+        <v>2.372902</v>
+      </c>
+      <c r="I20">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J20">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>908.663269</v>
+      </c>
+      <c r="N20">
+        <v>2725.989807</v>
+      </c>
+      <c r="O20">
+        <v>0.4245521568701914</v>
+      </c>
+      <c r="P20">
+        <v>0.4245521568701914</v>
+      </c>
+      <c r="Q20">
+        <v>718.7229627788793</v>
+      </c>
+      <c r="R20">
+        <v>6468.506665009913</v>
+      </c>
+      <c r="S20">
+        <v>0.004772494545954972</v>
+      </c>
+      <c r="T20">
+        <v>0.004772494545954972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H21">
+        <v>2.372902</v>
+      </c>
+      <c r="I21">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J21">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.2776163333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.832849</v>
+      </c>
+      <c r="O21">
+        <v>0.0001297098904732559</v>
+      </c>
+      <c r="P21">
+        <v>0.0001297098904732559</v>
+      </c>
+      <c r="Q21">
+        <v>0.2195854508664444</v>
+      </c>
+      <c r="R21">
+        <v>1.976269057798</v>
+      </c>
+      <c r="S21">
+        <v>1.458100576861053E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.458100576861054E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.420629</v>
+      </c>
+      <c r="I22">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J22">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2278003333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.6834009999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.0001064345023639502</v>
+      </c>
+      <c r="P22">
+        <v>0.0001064345023639502</v>
+      </c>
+      <c r="Q22">
+        <v>0.03193980880322221</v>
+      </c>
+      <c r="R22">
+        <v>0.287458279229</v>
+      </c>
+      <c r="S22">
+        <v>2.120880662040565E-07</v>
+      </c>
+      <c r="T22">
+        <v>2.120880662040566E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.420629</v>
+      </c>
+      <c r="I23">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J23">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>590.7385459999999</v>
+      </c>
+      <c r="N23">
+        <v>1772.215638</v>
+      </c>
+      <c r="O23">
+        <v>0.2760090920442617</v>
+      </c>
+      <c r="P23">
+        <v>0.2760090920442617</v>
+      </c>
+      <c r="Q23">
+        <v>82.82725462181131</v>
+      </c>
+      <c r="R23">
+        <v>745.4452915963019</v>
+      </c>
+      <c r="S23">
+        <v>0.0005499930312656966</v>
+      </c>
+      <c r="T23">
+        <v>0.0005499930312656967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.420629</v>
+      </c>
+      <c r="I24">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J24">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>640.3793133333334</v>
+      </c>
+      <c r="N24">
+        <v>1921.13794</v>
+      </c>
+      <c r="O24">
+        <v>0.2992026066927096</v>
+      </c>
+      <c r="P24">
+        <v>0.2992026066927096</v>
+      </c>
+      <c r="Q24">
+        <v>89.78737006269554</v>
+      </c>
+      <c r="R24">
+        <v>808.08633056426</v>
+      </c>
+      <c r="S24">
+        <v>0.0005962098835176491</v>
+      </c>
+      <c r="T24">
+        <v>0.0005962098835176491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.420629</v>
+      </c>
+      <c r="I25">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J25">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>908.663269</v>
+      </c>
+      <c r="N25">
+        <v>2725.989807</v>
+      </c>
+      <c r="O25">
+        <v>0.4245521568701914</v>
+      </c>
+      <c r="P25">
+        <v>0.4245521568701914</v>
+      </c>
+      <c r="Q25">
+        <v>127.4033740587336</v>
+      </c>
+      <c r="R25">
+        <v>1146.630366528603</v>
+      </c>
+      <c r="S25">
+        <v>0.0008459892605638554</v>
+      </c>
+      <c r="T25">
+        <v>0.0008459892605638555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.420629</v>
+      </c>
+      <c r="I26">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J26">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.2776163333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.832849</v>
+      </c>
+      <c r="O26">
+        <v>0.0001297098904732559</v>
+      </c>
+      <c r="P26">
+        <v>0.0001297098904732559</v>
+      </c>
+      <c r="Q26">
+        <v>0.03892449355788888</v>
+      </c>
+      <c r="R26">
+        <v>0.3503204420209999</v>
+      </c>
+      <c r="S26">
+        <v>2.584680646501575E-07</v>
+      </c>
+      <c r="T26">
+        <v>2.584680646501576E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H27">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I27">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J27">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.2278003333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.6834009999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.0001064345023639502</v>
+      </c>
+      <c r="P27">
+        <v>0.0001064345023639502</v>
+      </c>
+      <c r="Q27">
+        <v>4.629634088336777</v>
+      </c>
+      <c r="R27">
+        <v>41.666706795031</v>
+      </c>
+      <c r="S27">
+        <v>3.074189163363653E-05</v>
+      </c>
+      <c r="T27">
+        <v>3.074189163363653E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H28">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I28">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J28">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>590.7385459999999</v>
+      </c>
+      <c r="N28">
+        <v>1772.215638</v>
+      </c>
+      <c r="O28">
+        <v>0.2760090920442617</v>
+      </c>
+      <c r="P28">
+        <v>0.2760090920442617</v>
+      </c>
+      <c r="Q28">
+        <v>12005.70372236551</v>
+      </c>
+      <c r="R28">
+        <v>108051.3335012896</v>
+      </c>
+      <c r="S28">
+        <v>0.07972078047124899</v>
+      </c>
+      <c r="T28">
+        <v>0.07972078047124899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H29">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I29">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J29">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>640.3793133333334</v>
+      </c>
+      <c r="N29">
+        <v>1921.13794</v>
+      </c>
+      <c r="O29">
+        <v>0.2992026066927096</v>
+      </c>
+      <c r="P29">
+        <v>0.2992026066927096</v>
+      </c>
+      <c r="Q29">
+        <v>13014.56347798891</v>
+      </c>
+      <c r="R29">
+        <v>117131.0713019002</v>
+      </c>
+      <c r="S29">
+        <v>0.08641985359217756</v>
+      </c>
+      <c r="T29">
+        <v>0.08641985359217755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H30">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I30">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J30">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>908.663269</v>
+      </c>
+      <c r="N30">
+        <v>2725.989807</v>
+      </c>
+      <c r="O30">
+        <v>0.4245521568701914</v>
+      </c>
+      <c r="P30">
+        <v>0.4245521568701914</v>
+      </c>
+      <c r="Q30">
+        <v>18466.95473806125</v>
+      </c>
+      <c r="R30">
+        <v>166202.5926425512</v>
+      </c>
+      <c r="S30">
+        <v>0.1226250521160955</v>
+      </c>
+      <c r="T30">
+        <v>0.1226250521160955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H31">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J31">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.2776163333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.832849</v>
+      </c>
+      <c r="O31">
+        <v>0.0001297098904732559</v>
+      </c>
+      <c r="P31">
+        <v>0.0001297098904732559</v>
+      </c>
+      <c r="Q31">
+        <v>5.642055134302111</v>
+      </c>
+      <c r="R31">
+        <v>50.77849620871901</v>
+      </c>
+      <c r="S31">
+        <v>3.746461258497215E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.746461258497215E-05</v>
       </c>
     </row>
   </sheetData>
